--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam10-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam10-Epha3.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.15191000000001</v>
+        <v>41.92137399999999</v>
       </c>
       <c r="H2">
-        <v>129.45573</v>
+        <v>125.764122</v>
       </c>
       <c r="I2">
-        <v>0.2496843556605532</v>
+        <v>0.2188311536698969</v>
       </c>
       <c r="J2">
-        <v>0.2578482665072626</v>
+        <v>0.2273746866916212</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N2">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O2">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P2">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q2">
-        <v>1.31583119163</v>
+        <v>4.493007101198</v>
       </c>
       <c r="R2">
-        <v>11.84248072467</v>
+        <v>40.43706391078199</v>
       </c>
       <c r="S2">
-        <v>0.0002543379174183034</v>
+        <v>0.0007717656940427586</v>
       </c>
       <c r="T2">
-        <v>0.0002632727106259438</v>
+        <v>0.0008071066352522447</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.15191000000001</v>
+        <v>41.92137399999999</v>
       </c>
       <c r="H3">
-        <v>129.45573</v>
+        <v>125.764122</v>
       </c>
       <c r="I3">
-        <v>0.2496843556605532</v>
+        <v>0.2188311536698969</v>
       </c>
       <c r="J3">
-        <v>0.2578482665072626</v>
+        <v>0.2273746866916212</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O3">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P3">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q3">
-        <v>1279.59287927462</v>
+        <v>1243.103530291201</v>
       </c>
       <c r="R3">
-        <v>11516.33591347158</v>
+        <v>11187.93177262081</v>
       </c>
       <c r="S3">
-        <v>0.2473333890609813</v>
+        <v>0.2135284091953439</v>
       </c>
       <c r="T3">
-        <v>0.2560221158817259</v>
+        <v>0.2233063703228952</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.15191000000001</v>
+        <v>41.92137399999999</v>
       </c>
       <c r="H4">
-        <v>129.45573</v>
+        <v>125.764122</v>
       </c>
       <c r="I4">
-        <v>0.2496843556605532</v>
+        <v>0.2188311536698969</v>
       </c>
       <c r="J4">
-        <v>0.2578482665072626</v>
+        <v>0.2273746866916212</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N4">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O4">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P4">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q4">
-        <v>9.107383213140002</v>
+        <v>1.707359746480666</v>
       </c>
       <c r="R4">
-        <v>54.64429927884</v>
+        <v>15.366237718326</v>
       </c>
       <c r="S4">
-        <v>0.001760372374735271</v>
+        <v>0.0002932738920826495</v>
       </c>
       <c r="T4">
-        <v>0.001214809052754139</v>
+        <v>0.0003067035838380281</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.15191000000001</v>
+        <v>41.92137399999999</v>
       </c>
       <c r="H5">
-        <v>129.45573</v>
+        <v>125.764122</v>
       </c>
       <c r="I5">
-        <v>0.2496843556605532</v>
+        <v>0.2188311536698969</v>
       </c>
       <c r="J5">
-        <v>0.2578482665072626</v>
+        <v>0.2273746866916212</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N5">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O5">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P5">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q5">
-        <v>1.73964048371</v>
+        <v>24.670749559687</v>
       </c>
       <c r="R5">
-        <v>15.65676435339</v>
+        <v>148.024497358122</v>
       </c>
       <c r="S5">
-        <v>0.0003362563074183351</v>
+        <v>0.004237704888427651</v>
       </c>
       <c r="T5">
-        <v>0.0003480688621567084</v>
+        <v>0.002954506149635734</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>69.550715</v>
       </c>
       <c r="I6">
-        <v>0.1341441237132244</v>
+        <v>0.1210191186482915</v>
       </c>
       <c r="J6">
-        <v>0.1385302241707699</v>
+        <v>0.1257439067741692</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N6">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O6">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P6">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q6">
-        <v>0.7069366508316666</v>
+        <v>2.484745660518334</v>
       </c>
       <c r="R6">
-        <v>6.362429857484999</v>
+        <v>22.362710944665</v>
       </c>
       <c r="S6">
-        <v>0.0001366442722006508</v>
+        <v>0.0004268057930953082</v>
       </c>
       <c r="T6">
-        <v>0.0001414445329227411</v>
+        <v>0.0004463502203198924</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>69.550715</v>
       </c>
       <c r="I7">
-        <v>0.1341441237132244</v>
+        <v>0.1210191186482915</v>
       </c>
       <c r="J7">
-        <v>0.1385302241707699</v>
+        <v>0.1257439067741692</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O7">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P7">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q7">
         <v>687.4674428274321</v>
@@ -886,10 +886,10 @@
         <v>6187.206985446889</v>
       </c>
       <c r="S7">
-        <v>0.1328810555744765</v>
+        <v>0.1180865679032748</v>
       </c>
       <c r="T7">
-        <v>0.1375491159440133</v>
+        <v>0.1234940257445771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>69.550715</v>
       </c>
       <c r="I8">
-        <v>0.1341441237132244</v>
+        <v>0.1210191186482915</v>
       </c>
       <c r="J8">
-        <v>0.1385302241707699</v>
+        <v>0.1257439067741692</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N8">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O8">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P8">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q8">
-        <v>4.892985534536666</v>
+        <v>0.9442127789827778</v>
       </c>
       <c r="R8">
-        <v>29.35791320722</v>
+        <v>8.497915010845</v>
       </c>
       <c r="S8">
-        <v>0.0009457685444212165</v>
+        <v>0.0001621878208252518</v>
       </c>
       <c r="T8">
-        <v>0.0006526620197307842</v>
+        <v>0.0001696147773289213</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>69.550715</v>
       </c>
       <c r="I9">
-        <v>0.1341441237132244</v>
+        <v>0.1210191186482915</v>
       </c>
       <c r="J9">
-        <v>0.1385302241707699</v>
+        <v>0.1257439067741692</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N9">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O9">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P9">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q9">
-        <v>0.9346302360272222</v>
+        <v>13.64354351761917</v>
       </c>
       <c r="R9">
-        <v>8.411672124244999</v>
+        <v>81.86126110571499</v>
       </c>
       <c r="S9">
-        <v>0.0001806553221259886</v>
+        <v>0.002343557131096088</v>
       </c>
       <c r="T9">
-        <v>0.0001870016741030737</v>
+        <v>0.001633916031943214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.42777533333334</v>
+        <v>50.59004100000001</v>
       </c>
       <c r="H10">
-        <v>121.283326</v>
+        <v>151.770123</v>
       </c>
       <c r="I10">
-        <v>0.2339220450472051</v>
+        <v>0.2640819224159348</v>
       </c>
       <c r="J10">
-        <v>0.2415705767935897</v>
+        <v>0.274392120880658</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N10">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O10">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P10">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q10">
-        <v>1.232764153239333</v>
+        <v>5.422088824257001</v>
       </c>
       <c r="R10">
-        <v>11.094877379154</v>
+        <v>48.798799418313</v>
       </c>
       <c r="S10">
-        <v>0.000238281832348442</v>
+        <v>0.0009313544471136996</v>
       </c>
       <c r="T10">
-        <v>0.0002466525814635629</v>
+        <v>0.0009740033274859529</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.42777533333334</v>
+        <v>50.59004100000001</v>
       </c>
       <c r="H11">
-        <v>121.283326</v>
+        <v>151.770123</v>
       </c>
       <c r="I11">
-        <v>0.2339220450472051</v>
+        <v>0.2640819224159348</v>
       </c>
       <c r="J11">
-        <v>0.2415705767935897</v>
+        <v>0.274392120880658</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O11">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P11">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q11">
-        <v>1198.813527406955</v>
+        <v>1500.157379495162</v>
       </c>
       <c r="R11">
-        <v>10789.3217466626</v>
+        <v>13501.41641545646</v>
       </c>
       <c r="S11">
-        <v>0.2317194924949852</v>
+        <v>0.2576826555316919</v>
       </c>
       <c r="T11">
-        <v>0.2398597091352629</v>
+        <v>0.2694825420129706</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.42777533333334</v>
+        <v>50.59004100000001</v>
       </c>
       <c r="H12">
-        <v>121.283326</v>
+        <v>151.770123</v>
       </c>
       <c r="I12">
-        <v>0.2339220450472051</v>
+        <v>0.2640819224159348</v>
       </c>
       <c r="J12">
-        <v>0.2415705767935897</v>
+        <v>0.274392120880658</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N12">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O12">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P12">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q12">
-        <v>8.532443695201334</v>
+        <v>2.060414326501</v>
       </c>
       <c r="R12">
-        <v>51.194662171208</v>
+        <v>18.543728938509</v>
       </c>
       <c r="S12">
-        <v>0.001649241919275509</v>
+        <v>0.0003539182237846216</v>
       </c>
       <c r="T12">
-        <v>0.00113811943567837</v>
+        <v>0.0003701249601507045</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.42777533333334</v>
+        <v>50.59004100000001</v>
       </c>
       <c r="H13">
-        <v>121.283326</v>
+        <v>151.770123</v>
       </c>
       <c r="I13">
-        <v>0.2339220450472051</v>
+        <v>0.2640819224159348</v>
       </c>
       <c r="J13">
-        <v>0.2415705767935897</v>
+        <v>0.274392120880658</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N13">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O13">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P13">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q13">
-        <v>1.629818810713111</v>
+        <v>29.7722644235205</v>
       </c>
       <c r="R13">
-        <v>14.668369296418</v>
+        <v>178.633586541123</v>
       </c>
       <c r="S13">
-        <v>0.0003150288005959578</v>
+        <v>0.005113994213344614</v>
       </c>
       <c r="T13">
-        <v>0.0003260956411848369</v>
+        <v>0.003565450580050738</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.415873</v>
+        <v>21.5944925</v>
       </c>
       <c r="H14">
-        <v>32.831746</v>
+        <v>43.188985</v>
       </c>
       <c r="I14">
-        <v>0.09498505796407326</v>
+        <v>0.1127240654538407</v>
       </c>
       <c r="J14">
-        <v>0.06539385157000585</v>
+        <v>0.07808333391699843</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N14">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O14">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P14">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q14">
-        <v>0.500569215389</v>
+        <v>2.3144329226725</v>
       </c>
       <c r="R14">
-        <v>3.003415292334</v>
+        <v>13.886597536035</v>
       </c>
       <c r="S14">
-        <v>9.675536845120775E-05</v>
+        <v>0.0003975511034481754</v>
       </c>
       <c r="T14">
-        <v>6.676956488525065E-05</v>
+        <v>0.0002771705937191664</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.415873</v>
+        <v>21.5944925</v>
       </c>
       <c r="H15">
-        <v>32.831746</v>
+        <v>43.188985</v>
       </c>
       <c r="I15">
-        <v>0.09498505796407326</v>
+        <v>0.1127240654538407</v>
       </c>
       <c r="J15">
-        <v>0.06539385157000585</v>
+        <v>0.07808333391699843</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O15">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P15">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q15">
-        <v>486.7834169536527</v>
+        <v>640.3461361165516</v>
       </c>
       <c r="R15">
-        <v>2920.700501721916</v>
+        <v>3842.07681669931</v>
       </c>
       <c r="S15">
-        <v>0.09409070197552456</v>
+        <v>0.1099925214976443</v>
       </c>
       <c r="T15">
-        <v>0.0649307147625786</v>
+        <v>0.07668622278681328</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.415873</v>
+        <v>21.5944925</v>
       </c>
       <c r="H16">
-        <v>32.831746</v>
+        <v>43.188985</v>
       </c>
       <c r="I16">
-        <v>0.09498505796407326</v>
+        <v>0.1127240654538407</v>
       </c>
       <c r="J16">
-        <v>0.06539385157000585</v>
+        <v>0.07808333391699843</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N16">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O16">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P16">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q16">
-        <v>3.464635660142</v>
+        <v>0.8794932923758334</v>
       </c>
       <c r="R16">
-        <v>13.858542640568</v>
+        <v>5.276959754255</v>
       </c>
       <c r="S16">
-        <v>0.0006696818133047324</v>
+        <v>0.0001510709277569143</v>
       </c>
       <c r="T16">
-        <v>0.0003080922123611253</v>
+        <v>0.0001053258772945343</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.415873</v>
+        <v>21.5944925</v>
       </c>
       <c r="H17">
-        <v>32.831746</v>
+        <v>43.188985</v>
       </c>
       <c r="I17">
-        <v>0.09498505796407326</v>
+        <v>0.1127240654538407</v>
       </c>
       <c r="J17">
-        <v>0.06539385157000585</v>
+        <v>0.07808333391699843</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N17">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O17">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P17">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q17">
-        <v>0.6617949760796668</v>
+        <v>12.70836963349625</v>
       </c>
       <c r="R17">
-        <v>3.970769856478001</v>
+        <v>50.833478533985</v>
       </c>
       <c r="S17">
-        <v>0.0001279188067927548</v>
+        <v>0.002182921924991396</v>
       </c>
       <c r="T17">
-        <v>8.827503018088162E-05</v>
+        <v>0.001014614659171441</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,46 +1532,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>49.646716</v>
+        <v>54.28001766666667</v>
       </c>
       <c r="H18">
-        <v>148.940148</v>
+        <v>162.840053</v>
       </c>
       <c r="I18">
-        <v>0.287264417614944</v>
+        <v>0.2833437398120361</v>
       </c>
       <c r="J18">
-        <v>0.2966570809583718</v>
+        <v>0.2944059517365532</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N18">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O18">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P18">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q18">
-        <v>1.513877310988</v>
+        <v>5.817569453460335</v>
       </c>
       <c r="R18">
-        <v>13.624895798892</v>
+        <v>52.35812508114301</v>
       </c>
       <c r="S18">
-        <v>0.0002926183882497429</v>
+        <v>0.000999286318887549</v>
       </c>
       <c r="T18">
-        <v>0.0003028979596730807</v>
+        <v>0.001045045957233552</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>49.646716</v>
+        <v>54.28001766666667</v>
       </c>
       <c r="H19">
-        <v>148.940148</v>
+        <v>162.840053</v>
       </c>
       <c r="I19">
-        <v>0.287264417614944</v>
+        <v>0.2833437398120361</v>
       </c>
       <c r="J19">
-        <v>0.2966570809583718</v>
+        <v>0.2944059517365532</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O19">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P19">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q19">
-        <v>1472.184760140845</v>
+        <v>1609.577052166804</v>
       </c>
       <c r="R19">
-        <v>13249.66284126761</v>
+        <v>14486.19346950124</v>
       </c>
       <c r="S19">
-        <v>0.2845596063772854</v>
+        <v>0.2764777181076769</v>
       </c>
       <c r="T19">
-        <v>0.29455607589326</v>
+        <v>0.2891382740986962</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>49.646716</v>
+        <v>54.28001766666667</v>
       </c>
       <c r="H20">
-        <v>148.940148</v>
+        <v>162.840053</v>
       </c>
       <c r="I20">
-        <v>0.287264417614944</v>
+        <v>0.2833437398120361</v>
       </c>
       <c r="J20">
-        <v>0.2966570809583718</v>
+        <v>0.2944059517365532</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N20">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O20">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P20">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q20">
-        <v>10.478137998664</v>
+        <v>2.210698466188778</v>
       </c>
       <c r="R20">
-        <v>62.86882799198399</v>
+        <v>19.896286195699</v>
       </c>
       <c r="S20">
-        <v>0.002025326511450537</v>
+        <v>0.0003797325928157391</v>
       </c>
       <c r="T20">
-        <v>0.001397650301836321</v>
+        <v>0.0003971214290151403</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>49.646716</v>
+        <v>54.28001766666667</v>
       </c>
       <c r="H21">
-        <v>148.940148</v>
+        <v>162.840053</v>
       </c>
       <c r="I21">
-        <v>0.287264417614944</v>
+        <v>0.2833437398120361</v>
       </c>
       <c r="J21">
-        <v>0.2966570809583718</v>
+        <v>0.2944059517365532</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N21">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O21">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P21">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q21">
-        <v>2.001474257729333</v>
+        <v>31.94381753684217</v>
       </c>
       <c r="R21">
-        <v>18.013268319564</v>
+        <v>191.662905221053</v>
       </c>
       <c r="S21">
-        <v>0.0003868663379583145</v>
+        <v>0.005487002792655906</v>
       </c>
       <c r="T21">
-        <v>0.0004004568036023722</v>
+        <v>0.003825510251608236</v>
       </c>
     </row>
   </sheetData>
